--- a/Informacion/ESTRUCTURAS.xlsx
+++ b/Informacion/ESTRUCTURAS.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/garciaelectricidad2017/Informacion/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -326,14 +339,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -341,58 +354,58 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -400,14 +413,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,23 +428,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,6 +473,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,12 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,12 +554,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -576,12 +589,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -788,17 +801,17 @@
   <dimension ref="A1:G291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>56</v>
       </c>
@@ -809,48 +822,48 @@
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -870,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -890,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -910,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -930,7 +943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -950,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -970,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -990,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -1010,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1030,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -1050,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1070,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1090,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1110,47 +1123,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="E20" s="10" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="E20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="B21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -1190,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -1230,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -1270,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -1310,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -1330,7 +1343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
@@ -1350,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
@@ -1390,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
@@ -1410,47 +1423,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="E37" s="10" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="E37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="B38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
@@ -1470,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
@@ -1490,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -1530,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
@@ -1550,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>69</v>
       </c>
@@ -1570,7 +1583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>40</v>
       </c>
@@ -1590,7 +1603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>42</v>
       </c>
@@ -1610,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
@@ -1630,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
@@ -1670,47 +1683,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="E52" s="10" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="E52" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="13" t="s">
+      <c r="B53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>3</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>19</v>
       </c>
@@ -1750,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>20</v>
       </c>
@@ -1770,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -1790,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>22</v>
       </c>
@@ -1810,7 +1823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>69</v>
       </c>
@@ -1830,7 +1843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>40</v>
       </c>
@@ -1850,7 +1863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>42</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>45</v>
       </c>
@@ -1890,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>46</v>
       </c>
@@ -1910,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>39</v>
       </c>
@@ -1930,47 +1943,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="E67" s="10" t="s">
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="E67" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="F67" s="13"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="13" t="s">
+      <c r="B68" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F68" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>47</v>
       </c>
@@ -1990,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>50</v>
       </c>
@@ -2010,7 +2023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>27</v>
       </c>
@@ -2030,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>40</v>
       </c>
@@ -2090,7 +2103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>42</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -2130,7 +2143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>9</v>
       </c>
@@ -2150,7 +2163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>48</v>
       </c>
@@ -2170,7 +2183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>46</v>
       </c>
@@ -2190,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>37</v>
       </c>
@@ -2210,7 +2223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>33</v>
       </c>
@@ -2230,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>39</v>
       </c>
@@ -2250,47 +2263,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
-      <c r="E85" s="10" t="s">
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="E85" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="F85" s="13"/>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86" s="13" t="s">
+      <c r="B86" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F86" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>47</v>
       </c>
@@ -2310,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>50</v>
       </c>
@@ -2330,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>27</v>
       </c>
@@ -2350,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>28</v>
       </c>
@@ -2370,7 +2383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>29</v>
       </c>
@@ -2390,7 +2403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>40</v>
       </c>
@@ -2410,7 +2423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>42</v>
       </c>
@@ -2430,7 +2443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>9</v>
       </c>
@@ -2470,7 +2483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>48</v>
       </c>
@@ -2490,7 +2503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>46</v>
       </c>
@@ -2510,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>37</v>
       </c>
@@ -2530,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>33</v>
       </c>
@@ -2550,7 +2563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>39</v>
       </c>
@@ -2570,47 +2583,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12"/>
-      <c r="E103" s="10" t="s">
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="E103" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
+      <c r="F103" s="13"/>
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="13" t="s">
+      <c r="B104" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F104" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F104" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>47</v>
       </c>
@@ -2630,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>50</v>
       </c>
@@ -2650,7 +2663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>27</v>
       </c>
@@ -2670,7 +2683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>28</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>29</v>
       </c>
@@ -2710,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>40</v>
       </c>
@@ -2730,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>30</v>
       </c>
@@ -2750,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>42</v>
       </c>
@@ -2770,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>48</v>
       </c>
@@ -2790,7 +2803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>46</v>
       </c>
@@ -2810,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>39</v>
       </c>
@@ -2830,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -2838,47 +2851,47 @@
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
-      <c r="E118" s="10" t="s">
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="E118" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F118" s="11"/>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
+      <c r="F118" s="13"/>
+      <c r="G118" s="14"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E119" s="13" t="s">
+      <c r="B119" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F119" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F119" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>47</v>
       </c>
@@ -2898,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>50</v>
       </c>
@@ -2918,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>27</v>
       </c>
@@ -2938,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>28</v>
       </c>
@@ -2958,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>29</v>
       </c>
@@ -2978,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>40</v>
       </c>
@@ -2998,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>30</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>42</v>
       </c>
@@ -3038,7 +3051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>48</v>
       </c>
@@ -3058,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>46</v>
       </c>
@@ -3078,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>39</v>
       </c>
@@ -3098,47 +3111,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12"/>
-      <c r="E133" s="10" t="s">
+      <c r="B133" s="13"/>
+      <c r="C133" s="14"/>
+      <c r="E133" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F133" s="11"/>
-      <c r="G133" s="12"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
+      <c r="F133" s="13"/>
+      <c r="G133" s="14"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" s="13" t="s">
+      <c r="B134" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F134" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F134" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>3</v>
       </c>
@@ -3158,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>5</v>
       </c>
@@ -3178,7 +3191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>58</v>
       </c>
@@ -3198,7 +3211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>9</v>
       </c>
@@ -3218,7 +3231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>10</v>
       </c>
@@ -3238,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>11</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>12</v>
       </c>
@@ -3278,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>46</v>
       </c>
@@ -3298,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>48</v>
       </c>
@@ -3318,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>36</v>
       </c>
@@ -3338,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>37</v>
       </c>
@@ -3358,7 +3371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>38</v>
       </c>
@@ -3378,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>39</v>
       </c>
@@ -3398,8 +3411,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>60</v>
       </c>
@@ -3410,47 +3423,47 @@
       <c r="F150" s="16"/>
       <c r="G150" s="17"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
-      <c r="E152" s="10" t="s">
+      <c r="B152" s="13"/>
+      <c r="C152" s="14"/>
+      <c r="E152" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F152" s="11"/>
-      <c r="G152" s="12"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
+      <c r="F152" s="13"/>
+      <c r="G152" s="14"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E153" s="13" t="s">
+      <c r="B153" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F153" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F153" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>3</v>
       </c>
@@ -3470,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>8</v>
       </c>
@@ -3510,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>9</v>
       </c>
@@ -3530,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>10</v>
       </c>
@@ -3550,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>11</v>
       </c>
@@ -3570,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>12</v>
       </c>
@@ -3590,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>62</v>
       </c>
@@ -3610,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>36</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>61</v>
       </c>
@@ -3650,7 +3663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>34</v>
       </c>
@@ -3670,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>35</v>
       </c>
@@ -3690,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -3710,47 +3723,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="12"/>
-      <c r="E169" s="10" t="s">
+      <c r="B169" s="13"/>
+      <c r="C169" s="14"/>
+      <c r="E169" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F169" s="11"/>
-      <c r="G169" s="12"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="13" t="s">
+      <c r="F169" s="13"/>
+      <c r="G169" s="14"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E170" s="13" t="s">
+      <c r="B170" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F170" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G170" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F170" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G170" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>3</v>
       </c>
@@ -3770,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>5</v>
       </c>
@@ -3790,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>8</v>
       </c>
@@ -3810,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>9</v>
       </c>
@@ -3830,7 +3843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>10</v>
       </c>
@@ -3850,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>11</v>
       </c>
@@ -3870,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>12</v>
       </c>
@@ -3890,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>62</v>
       </c>
@@ -3910,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>36</v>
       </c>
@@ -3930,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>37</v>
       </c>
@@ -3950,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>38</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>39</v>
       </c>
@@ -3990,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>13</v>
       </c>
@@ -4010,47 +4023,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B186" s="11"/>
-      <c r="C186" s="12"/>
-      <c r="E186" s="10" t="s">
+      <c r="B186" s="13"/>
+      <c r="C186" s="14"/>
+      <c r="E186" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F186" s="11"/>
-      <c r="G186" s="12"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="13" t="s">
+      <c r="F186" s="13"/>
+      <c r="G186" s="14"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B187" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E187" s="13" t="s">
+      <c r="B187" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F187" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G187" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F187" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G187" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>68</v>
       </c>
@@ -4070,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>19</v>
       </c>
@@ -4090,7 +4103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>20</v>
       </c>
@@ -4110,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>69</v>
       </c>
@@ -4130,7 +4143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>40</v>
       </c>
@@ -4150,7 +4163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>42</v>
       </c>
@@ -4170,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>44</v>
       </c>
@@ -4190,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>39</v>
       </c>
@@ -4210,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>43</v>
       </c>
@@ -4230,47 +4243,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="10" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B199" s="11"/>
-      <c r="C199" s="12"/>
-      <c r="E199" s="10" t="s">
+      <c r="B199" s="13"/>
+      <c r="C199" s="14"/>
+      <c r="E199" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F199" s="11"/>
-      <c r="G199" s="12"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
+      <c r="F199" s="13"/>
+      <c r="G199" s="14"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B200" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E200" s="13" t="s">
+      <c r="B200" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E200" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F200" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G200" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="14"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F200" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G200" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>3</v>
       </c>
@@ -4290,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>19</v>
       </c>
@@ -4310,7 +4323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>20</v>
       </c>
@@ -4330,7 +4343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>69</v>
       </c>
@@ -4350,7 +4363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>40</v>
       </c>
@@ -4370,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>42</v>
       </c>
@@ -4390,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>45</v>
       </c>
@@ -4410,7 +4423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>46</v>
       </c>
@@ -4430,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>39</v>
       </c>
@@ -4450,47 +4463,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="10" t="s">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12"/>
-      <c r="E212" s="10" t="s">
+      <c r="B212" s="13"/>
+      <c r="C212" s="14"/>
+      <c r="E212" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F212" s="11"/>
-      <c r="G212" s="12"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="13" t="s">
+      <c r="F212" s="13"/>
+      <c r="G212" s="14"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B213" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E213" s="13" t="s">
+      <c r="B213" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E213" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F213" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G213" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
-      <c r="B214" s="14"/>
-      <c r="C214" s="14"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
-      <c r="G214" s="14"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F213" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G213" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>47</v>
       </c>
@@ -4510,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>50</v>
       </c>
@@ -4530,7 +4543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>27</v>
       </c>
@@ -4550,7 +4563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>28</v>
       </c>
@@ -4570,7 +4583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>29</v>
       </c>
@@ -4590,7 +4603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>40</v>
       </c>
@@ -4610,7 +4623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>42</v>
       </c>
@@ -4630,7 +4643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>30</v>
       </c>
@@ -4650,7 +4663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>9</v>
       </c>
@@ -4670,7 +4683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>48</v>
       </c>
@@ -4690,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>46</v>
       </c>
@@ -4710,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>37</v>
       </c>
@@ -4730,7 +4743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>33</v>
       </c>
@@ -4750,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>39</v>
       </c>
@@ -4770,47 +4783,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B230" s="11"/>
-      <c r="C230" s="12"/>
-      <c r="E230" s="10" t="s">
+      <c r="B230" s="13"/>
+      <c r="C230" s="14"/>
+      <c r="E230" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F230" s="11"/>
-      <c r="G230" s="12"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="13" t="s">
+      <c r="F230" s="13"/>
+      <c r="G230" s="14"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E231" s="13" t="s">
+      <c r="B231" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F231" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G231" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
-      <c r="B232" s="14"/>
-      <c r="C232" s="14"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
-      <c r="G232" s="14"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F231" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G231" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="11"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>47</v>
       </c>
@@ -4830,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>50</v>
       </c>
@@ -4850,7 +4863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>27</v>
       </c>
@@ -4870,7 +4883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>29</v>
       </c>
@@ -4890,7 +4903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>40</v>
       </c>
@@ -4910,7 +4923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>42</v>
       </c>
@@ -4930,7 +4943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>53</v>
       </c>
@@ -4950,7 +4963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>9</v>
       </c>
@@ -4970,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>48</v>
       </c>
@@ -4990,7 +5003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>46</v>
       </c>
@@ -5010,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>37</v>
       </c>
@@ -5030,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>33</v>
       </c>
@@ -5050,7 +5063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>39</v>
       </c>
@@ -5070,47 +5083,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="10" t="s">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B247" s="11"/>
-      <c r="C247" s="12"/>
-      <c r="E247" s="10" t="s">
+      <c r="B247" s="13"/>
+      <c r="C247" s="14"/>
+      <c r="E247" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F247" s="11"/>
-      <c r="G247" s="12"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="13" t="s">
+      <c r="F247" s="13"/>
+      <c r="G247" s="14"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B248" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E248" s="13" t="s">
+      <c r="B248" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F248" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G248" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="14"/>
-      <c r="B249" s="14"/>
-      <c r="C249" s="14"/>
-      <c r="E249" s="14"/>
-      <c r="F249" s="14"/>
-      <c r="G249" s="14"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F248" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G248" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>47</v>
       </c>
@@ -5130,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>77</v>
       </c>
@@ -5150,7 +5163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>27</v>
       </c>
@@ -5170,7 +5183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>78</v>
       </c>
@@ -5190,7 +5203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>79</v>
       </c>
@@ -5210,7 +5223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>40</v>
       </c>
@@ -5230,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>42</v>
       </c>
@@ -5250,7 +5263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>30</v>
       </c>
@@ -5270,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>48</v>
       </c>
@@ -5290,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>46</v>
       </c>
@@ -5310,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>39</v>
       </c>
@@ -5330,47 +5343,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="10" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B262" s="11"/>
-      <c r="C262" s="12"/>
-      <c r="E262" s="10" t="s">
+      <c r="B262" s="13"/>
+      <c r="C262" s="14"/>
+      <c r="E262" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F262" s="11"/>
-      <c r="G262" s="12"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="13" t="s">
+      <c r="F262" s="13"/>
+      <c r="G262" s="14"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B263" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E263" s="13" t="s">
+      <c r="B263" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E263" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F263" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G263" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
-      <c r="B264" s="14"/>
-      <c r="C264" s="14"/>
-      <c r="E264" s="14"/>
-      <c r="F264" s="14"/>
-      <c r="G264" s="14"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F263" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G263" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="11"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>47</v>
       </c>
@@ -5390,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>50</v>
       </c>
@@ -5410,7 +5423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>27</v>
       </c>
@@ -5430,7 +5443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>29</v>
       </c>
@@ -5450,7 +5463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>40</v>
       </c>
@@ -5470,7 +5483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>82</v>
       </c>
@@ -5490,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>42</v>
       </c>
@@ -5510,7 +5523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>48</v>
       </c>
@@ -5530,7 +5543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>46</v>
       </c>
@@ -5550,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>39</v>
       </c>
@@ -5570,30 +5583,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="10" t="s">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B276" s="11"/>
-      <c r="C276" s="12"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="13" t="s">
+      <c r="B276" s="13"/>
+      <c r="C276" s="14"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B277" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C277" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
-      <c r="B278" s="14"/>
-      <c r="C278" s="14"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B277" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="11"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>3</v>
       </c>
@@ -5604,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>5</v>
       </c>
@@ -5615,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>58</v>
       </c>
@@ -5626,7 +5639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>9</v>
       </c>
@@ -5637,7 +5650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>10</v>
       </c>
@@ -5648,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>11</v>
       </c>
@@ -5659,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>12</v>
       </c>
@@ -5670,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>46</v>
       </c>
@@ -5681,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>48</v>
       </c>
@@ -5692,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>36</v>
       </c>
@@ -5703,7 +5716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>37</v>
       </c>
@@ -5714,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>38</v>
       </c>
@@ -5725,7 +5738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>39</v>
       </c>
@@ -5738,48 +5751,82 @@
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="E262:G262"/>
+    <mergeCell ref="E263:E264"/>
+    <mergeCell ref="F263:F264"/>
+    <mergeCell ref="G263:G264"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="E247:G247"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="F248:F249"/>
+    <mergeCell ref="G248:G249"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="E230:G230"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="F231:F232"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="E212:G212"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="E199:G199"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="E186:G186"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E169:G169"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A133:C133"/>
     <mergeCell ref="A134:A135"/>
@@ -5804,82 +5851,48 @@
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="E85:G85"/>
     <mergeCell ref="E86:E87"/>
-    <mergeCell ref="A150:G150"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="E186:G186"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E169:G169"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="E212:G212"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="E199:G199"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="F248:F249"/>
-    <mergeCell ref="G248:G249"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="E230:G230"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="F231:F232"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="E262:G262"/>
-    <mergeCell ref="E263:E264"/>
-    <mergeCell ref="F263:F264"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="E247:G247"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5892,7 +5905,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5904,7 +5917,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
